--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="92">
   <si>
     <t>mesure</t>
   </si>
@@ -93,7 +93,7 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>16.0</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>2021-03-31</t>
@@ -102,7 +102,7 @@
     <t>% de détenus</t>
   </si>
   <si>
-    <t>Postes de travail d'intérêt général proposés en tant que peine</t>
+    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
   </si>
   <si>
     <t>nb-postes-tig</t>
@@ -123,93 +123,93 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1139.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>1207.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1139.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>1207.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
     <t>1610.0</t>
   </si>
   <si>
@@ -240,6 +240,30 @@
     <t>1355.0</t>
   </si>
   <si>
+    <t>Simplifier l’accès à l’aide juridictionnelle</t>
+  </si>
+  <si>
+    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
+  </si>
+  <si>
+    <t>nb-aide-juridictionnelle-dematerialisee</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>% des demandes *</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
@@ -255,6 +279,9 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>1870.0</t>
   </si>
   <si>
@@ -274,6 +301,12 @@
   </si>
   <si>
     <t>985.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
 </sst>
 </file>
@@ -729,7 +762,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,36 +820,62 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -826,6 +885,906 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -885,640 +1844,28 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1595,7 +1942,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1621,13 +1968,13 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -1713,13 +2060,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1739,19 +2086,19 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -1837,13 +2184,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1863,19 +2210,19 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -1961,13 +2308,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1987,19 +2334,19 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -2085,13 +2432,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2111,19 +2458,19 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -2145,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,36 +2550,62 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2243,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2301,36 +2674,62 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2341,7 +2740,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2399,36 +2798,62 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="141">
   <si>
     <t>mesure</t>
   </si>
@@ -93,220 +93,367 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>% de détenus</t>
+  </si>
+  <si>
+    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
+  </si>
+  <si>
+    <t>nb-postes-tig</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>postes</t>
+  </si>
+  <si>
+    <t>Simplifier l’accès à l’aide juridictionnelle</t>
+  </si>
+  <si>
+    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
+  </si>
+  <si>
+    <t>nb-aide-juridictionnelle-dematerialisee</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>% des demandes *</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1360.0</t>
+  </si>
+  <si>
+    <t>1139.0</t>
+  </si>
+  <si>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>946.0</t>
+  </si>
+  <si>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>1541.0</t>
+  </si>
+  <si>
+    <t>1207.0</t>
+  </si>
+  <si>
+    <t>334.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>1303.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1925.0</t>
+  </si>
+  <si>
+    <t>1610.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2593.0</t>
+  </si>
+  <si>
+    <t>2474.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>1291.0</t>
+  </si>
+  <si>
+    <t>980.0</t>
+  </si>
+  <si>
+    <t>311.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>1336.0</t>
+  </si>
+  <si>
+    <t>1355.0</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2770.0</t>
+  </si>
+  <si>
+    <t>2635.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>2077.0</t>
+  </si>
+  <si>
+    <t>1870.0</t>
+  </si>
+  <si>
+    <t>207.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2197.0</t>
+  </si>
+  <si>
+    <t>2113.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>% de détenus</t>
-  </si>
-  <si>
-    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
-  </si>
-  <si>
-    <t>nb-postes-tig</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>postes</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1139.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
+    <t>1027.0</t>
+  </si>
+  <si>
+    <t>985.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>302.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
   </si>
   <si>
     <t>7.0</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>1207.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>1610.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>2474.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>980.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>1355.0</t>
-  </si>
-  <si>
-    <t>Simplifier l’accès à l’aide juridictionnelle</t>
-  </si>
-  <si>
-    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
-  </si>
-  <si>
-    <t>nb-aide-juridictionnelle-dematerialisee</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>% des demandes *</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>2635.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>1870.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>2113.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>985.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
   </si>
 </sst>
 </file>
@@ -638,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,22 +884,54 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -826,16 +1005,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -852,31 +1031,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -950,16 +1129,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -976,31 +1155,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1074,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1100,31 +1279,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1198,13 +1377,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1224,63 +1403,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1354,13 +1501,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1380,31 +1527,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1625,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1504,31 +1651,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1602,16 +1749,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -1628,31 +1775,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1726,13 +1873,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1752,31 +1899,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1785,92 +1932,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -1936,13 +1997,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1962,31 +2023,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1994,9 +2055,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2060,13 +2121,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2086,31 +2147,63 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2118,9 +2211,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2184,13 +2277,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2210,31 +2303,63 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2242,9 +2367,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2308,13 +2433,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2334,31 +2459,219 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2432,10 +2745,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2458,31 +2771,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2556,13 +2869,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2582,31 +2895,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2680,16 +2993,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -2706,31 +3019,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2804,10 +3117,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2830,31 +3143,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="145">
   <si>
     <t>mesure</t>
   </si>
@@ -99,6 +99,12 @@
     <t>2021-09-30</t>
   </si>
   <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>% de détenus</t>
   </si>
   <si>
@@ -138,7 +144,7 @@
     <t>nb-aide-juridictionnelle-dematerialisee</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>2021-01-31</t>
   </si>
   <si>
     <t>15.0</t>
@@ -177,6 +183,9 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
     <t>81.0</t>
   </si>
   <si>
@@ -414,6 +423,12 @@
     <t>2022-10-31</t>
   </si>
   <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
     <t>2197.0</t>
   </si>
   <si>
@@ -451,9 +466,6 @@
   </si>
   <si>
     <t>282.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
   </si>
 </sst>
 </file>
@@ -860,8 +872,20 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -869,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -881,36 +905,36 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -919,19 +943,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1005,19 +1041,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1025,37 +1073,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1129,19 +1177,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1149,37 +1209,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
         <v>100</v>
       </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1253,19 +1313,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1273,37 +1345,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1377,19 +1449,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1397,37 +1481,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1501,19 +1585,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1521,37 +1617,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1625,19 +1721,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1645,37 +1753,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1749,19 +1857,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1769,37 +1889,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1873,19 +1993,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1893,37 +2025,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1997,19 +2129,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2017,37 +2161,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2121,19 +2265,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2141,69 +2297,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2277,19 +2445,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2297,69 +2474,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2433,19 +2622,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2453,69 +2654,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2589,19 +2802,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2609,69 +2834,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2745,10 +2982,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2756,8 +2993,20 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2765,37 +3014,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2869,19 +3118,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2889,37 +3150,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2993,19 +3254,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3013,37 +3286,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3117,19 +3390,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3137,37 +3422,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="143">
   <si>
     <t>mesure</t>
   </si>
@@ -114,10 +114,10 @@
     <t>nb-postes-tig</t>
   </si>
   <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
   </si>
   <si>
     <t>117.0</t>
@@ -126,10 +126,10 @@
     <t>2021-03-31</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
   </si>
   <si>
     <t>postes</t>
@@ -186,16 +186,13 @@
     <t>2020-03-31</t>
   </si>
   <si>
-    <t>81.0</t>
+    <t>82.0</t>
   </si>
   <si>
     <t>45.0</t>
   </si>
   <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
+    <t>37.0</t>
   </si>
   <si>
     <t>04</t>
@@ -207,16 +204,13 @@
     <t>4.0</t>
   </si>
   <si>
-    <t>144.0</t>
+    <t>149.0</t>
   </si>
   <si>
     <t>112.0</t>
   </si>
   <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
+    <t>33.0</t>
   </si>
   <si>
     <t>06</t>
@@ -225,16 +219,16 @@
     <t>Mayotte</t>
   </si>
   <si>
-    <t>61.0</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>-13.0</t>
+    <t>-16.0</t>
+  </si>
+  <si>
+    <t>-23.0</t>
   </si>
   <si>
     <t>11</t>
@@ -243,16 +237,16 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>1360.0</t>
+    <t>1458.0</t>
   </si>
   <si>
     <t>1139.0</t>
   </si>
   <si>
-    <t>221.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
   </si>
   <si>
     <t>24</t>
@@ -264,123 +258,129 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>946.0</t>
+    <t>1026.0</t>
   </si>
   <si>
     <t>845.0</t>
   </si>
   <si>
-    <t>101.0</t>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>1621.0</t>
+  </si>
+  <si>
+    <t>1207.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1903.0</t>
+  </si>
+  <si>
+    <t>1610.0</t>
+  </si>
+  <si>
+    <t>293.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2590.0</t>
+  </si>
+  <si>
+    <t>2474.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>1357.0</t>
+  </si>
+  <si>
+    <t>980.0</t>
+  </si>
+  <si>
+    <t>377.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>1367.0</t>
+  </si>
+  <si>
+    <t>1355.0</t>
   </si>
   <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>1541.0</t>
-  </si>
-  <si>
-    <t>1207.0</t>
-  </si>
-  <si>
-    <t>334.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>1303.0</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>1925.0</t>
-  </si>
-  <si>
-    <t>1610.0</t>
-  </si>
-  <si>
-    <t>315.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2593.0</t>
-  </si>
-  <si>
-    <t>2474.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>1291.0</t>
-  </si>
-  <si>
-    <t>980.0</t>
-  </si>
-  <si>
-    <t>311.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>1336.0</t>
-  </si>
-  <si>
-    <t>1355.0</t>
-  </si>
-  <si>
-    <t>-19.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -390,13 +390,13 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>2770.0</t>
+    <t>2816.0</t>
   </si>
   <si>
     <t>2635.0</t>
   </si>
   <si>
-    <t>135.0</t>
+    <t>7.0</t>
   </si>
   <si>
     <t>76</t>
@@ -405,13 +405,16 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>2077.0</t>
+    <t>2277.0</t>
   </si>
   <si>
     <t>1870.0</t>
   </si>
   <si>
-    <t>207.0</t>
+    <t>407.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
   </si>
   <si>
     <t>84</t>
@@ -420,22 +423,13 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>2022-10-31</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>2197.0</t>
+    <t>2239.0</t>
   </si>
   <si>
     <t>2113.0</t>
   </si>
   <si>
-    <t>84.0</t>
+    <t>126.0</t>
   </si>
   <si>
     <t>93</t>
@@ -447,13 +441,13 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>1027.0</t>
+    <t>1085.0</t>
   </si>
   <si>
     <t>985.0</t>
   </si>
   <si>
-    <t>42.0</t>
+    <t>100.0</t>
   </si>
   <si>
     <t>94</t>
@@ -462,7 +456,7 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>302.0</t>
+    <t>303.0</t>
   </si>
   <si>
     <t>282.0</t>
@@ -1041,19 +1035,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1079,28 +1073,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -1177,19 +1171,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1215,28 +1209,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -1313,19 +1307,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1351,28 +1345,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
         <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -1455,13 +1449,13 @@
         <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1641,10 +1635,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
         <v>121</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -1727,13 +1721,13 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1780,7 +1774,7 @@
         <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -1857,28 +1851,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -1895,28 +1889,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -1993,19 +1987,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2031,28 +2025,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -2129,19 +2123,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2167,28 +2161,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
         <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -2501,7 +2495,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -2622,19 +2616,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2660,28 +2654,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -2698,10 +2692,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2802,19 +2796,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2840,28 +2834,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -2878,10 +2872,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2982,10 +2976,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3020,28 +3014,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -3118,19 +3112,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3156,28 +3150,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -3254,19 +3248,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3292,28 +3286,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -3390,19 +3384,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3428,28 +3422,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
         <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="164">
   <si>
     <t>mesure</t>
   </si>
@@ -78,7 +78,7 @@
     <t>unite</t>
   </si>
   <si>
-    <t>Lutter contre la récidive par une meilleure insertion professionnelle des condamnés</t>
+    <t>Lutter contre la récidive par une meilleure insertion professionnelle des personnes placées sous main de justice</t>
   </si>
   <si>
     <t>Taux de personnes détenues ayant bénéficié d'une formation dans l'année</t>
@@ -93,373 +93,436 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
     <t>3.0</t>
   </si>
   <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>% de détenus</t>
+  </si>
+  <si>
+    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
+  </si>
+  <si>
+    <t>nb-postes-tig</t>
+  </si>
+  <si>
+    <t>219.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>postes</t>
+  </si>
+  <si>
+    <t>Simplifier l’accès à l’aide juridictionnelle</t>
+  </si>
+  <si>
+    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
+  </si>
+  <si>
+    <t>nb-aide-juridictionnelle-dematerialisee</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>% des demandes *</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>-50.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>-17.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1843.0</t>
+  </si>
+  <si>
+    <t>1139.0</t>
+  </si>
+  <si>
+    <t>704.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>1431.0</t>
+  </si>
+  <si>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>586.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>1899.0</t>
+  </si>
+  <si>
+    <t>1207.0</t>
+  </si>
+  <si>
+    <t>692.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>1583.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>294.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>2209.0</t>
+  </si>
+  <si>
+    <t>1610.0</t>
+  </si>
+  <si>
+    <t>599.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>2928.0</t>
+  </si>
+  <si>
+    <t>2474.0</t>
+  </si>
+  <si>
+    <t>454.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>1539.0</t>
+  </si>
+  <si>
+    <t>980.0</t>
+  </si>
+  <si>
+    <t>559.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>1458.0</t>
+  </si>
+  <si>
+    <t>1355.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>3239.0</t>
+  </si>
+  <si>
+    <t>2635.0</t>
+  </si>
+  <si>
+    <t>604.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>2672.0</t>
+  </si>
+  <si>
+    <t>1870.0</t>
+  </si>
+  <si>
+    <t>802.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>2902.0</t>
+  </si>
+  <si>
+    <t>2113.0</t>
+  </si>
+  <si>
+    <t>789.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>-38.0</t>
+  </si>
+  <si>
+    <t>1348.0</t>
+  </si>
+  <si>
+    <t>985.0</t>
+  </si>
+  <si>
+    <t>363.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
     <t>2021-09-30</t>
   </si>
   <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>% de détenus</t>
-  </si>
-  <si>
-    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
-  </si>
-  <si>
-    <t>nb-postes-tig</t>
-  </si>
-  <si>
-    <t>173.0</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>postes</t>
-  </si>
-  <si>
-    <t>Simplifier l’accès à l’aide juridictionnelle</t>
-  </si>
-  <si>
-    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
-  </si>
-  <si>
-    <t>nb-aide-juridictionnelle-dematerialisee</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>% des demandes *</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>-16.0</t>
+    <t>-66.0</t>
   </si>
   <si>
     <t>-23.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1458.0</t>
-  </si>
-  <si>
-    <t>1139.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1026.0</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>1621.0</t>
-  </si>
-  <si>
-    <t>1207.0</t>
-  </si>
-  <si>
-    <t>414.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>1333.0</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>1903.0</t>
-  </si>
-  <si>
-    <t>1610.0</t>
-  </si>
-  <si>
-    <t>293.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2590.0</t>
-  </si>
-  <si>
-    <t>2474.0</t>
-  </si>
-  <si>
-    <t>116.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>1357.0</t>
-  </si>
-  <si>
-    <t>980.0</t>
-  </si>
-  <si>
-    <t>377.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>1367.0</t>
-  </si>
-  <si>
-    <t>1355.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2816.0</t>
-  </si>
-  <si>
-    <t>2635.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>2277.0</t>
-  </si>
-  <si>
-    <t>1870.0</t>
-  </si>
-  <si>
-    <t>407.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>2239.0</t>
-  </si>
-  <si>
-    <t>2113.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1085.0</t>
-  </si>
-  <si>
-    <t>985.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>303.0</t>
-  </si>
-  <si>
-    <t>282.0</t>
   </si>
 </sst>
 </file>
@@ -867,19 +930,19 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -887,10 +950,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -899,36 +962,36 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -937,31 +1000,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1035,31 +1098,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1067,37 +1130,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1171,31 +1234,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1203,37 +1266,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1307,31 +1370,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1339,37 +1402,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1443,31 +1506,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1475,37 +1538,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1579,31 +1642,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1611,37 +1674,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1715,31 +1778,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1747,37 +1810,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1851,31 +1914,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1883,37 +1946,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1987,31 +2050,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2019,37 +2082,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2123,31 +2186,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2155,37 +2218,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2259,31 +2322,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2291,81 +2354,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2439,28 +2502,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2468,81 +2531,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2616,31 +2679,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2648,81 +2711,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2796,31 +2859,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2828,81 +2891,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2976,31 +3039,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3008,37 +3071,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3112,31 +3175,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3144,37 +3207,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3248,31 +3311,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3280,37 +3343,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3384,31 +3447,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3416,37 +3479,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
